--- a/Excel/TI/Mon_TI_2024_03_07.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_07.xlsx
@@ -644,16 +644,16 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>55.2</v>
+        <v>49.8</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>50.1</v>
       </c>
       <c r="H2" t="n">
-        <v>52.1</v>
+        <v>51.9</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -665,22 +665,22 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
+        <v>41</v>
+      </c>
+      <c r="O2" t="n">
         <v>56</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>35</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>46</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>71</v>
-      </c>
-      <c r="R2" t="n">
-        <v>68</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -774,12 +774,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -790,16 +790,16 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="G3" t="n">
-        <v>36.6</v>
+        <v>37.7</v>
       </c>
       <c r="H3" t="n">
-        <v>32.9</v>
+        <v>33.6</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -808,44 +808,46 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>57</v>
-      </c>
-      <c r="O3" t="n">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P3" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>47</v>
+      </c>
+      <c r="R3" t="n">
+        <v>40</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
         <v>38</v>
       </c>
-      <c r="Q3" t="n">
-        <v>18</v>
-      </c>
-      <c r="R3" t="n">
-        <v>35</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v>12</v>
-      </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>-</t>
@@ -873,7 +875,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -883,7 +885,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -893,17 +895,17 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -912,7 +914,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -920,19 +922,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Rudy Gobert</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>C</t>
@@ -940,16 +938,16 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="H4" t="n">
-        <v>33.4</v>
+        <v>32.9</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -958,27 +956,25 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N4" t="n">
+        <v>57</v>
       </c>
       <c r="O4" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P4" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="R4" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -987,7 +983,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -996,7 +992,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -1025,7 +1021,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1035,7 +1031,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1045,26 +1041,26 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.4</v>
+        <v>-1</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1088,13 +1084,13 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>36.8</v>
+        <v>34.8</v>
       </c>
       <c r="G5" t="n">
         <v>35.1</v>
       </c>
       <c r="H5" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="I5" t="n">
         <v>10</v>
@@ -1112,20 +1108,20 @@
         <v>5</v>
       </c>
       <c r="N5" t="n">
+        <v>27</v>
+      </c>
+      <c r="O5" t="n">
         <v>40</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>37</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>19</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>51</v>
       </c>
-      <c r="R5" t="n">
-        <v>37</v>
-      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>@</t>
@@ -1212,7 +1208,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
@@ -1240,19 +1236,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>40.8</v>
+        <v>43.6</v>
       </c>
       <c r="G6" t="n">
-        <v>33.7</v>
+        <v>34.3</v>
       </c>
       <c r="H6" t="n">
-        <v>35.7</v>
+        <v>36.1</v>
       </c>
       <c r="I6" t="n">
         <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -1261,26 +1257,26 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
+        <v>58</v>
+      </c>
+      <c r="O6" t="n">
         <v>25</v>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>37</v>
-      </c>
-      <c r="R6" t="n">
-        <v>52</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1364,10 +1360,10 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="AK6" t="n">
-        <v>-6.6</v>
+        <v>-7.1</v>
       </c>
       <c r="AL6" t="n">
         <v>9</v>
@@ -1392,13 +1388,13 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="H7" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="I7" t="n">
         <v>11</v>
@@ -1410,25 +1406,25 @@
         <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
+        <v>34</v>
+      </c>
+      <c r="O7" t="n">
         <v>31</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>15</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>43</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>42</v>
-      </c>
-      <c r="R7" t="n">
-        <v>24</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1514,7 +1510,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -1527,54 +1523,54 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>33.6</v>
       </c>
       <c r="G8" t="n">
-        <v>32.7</v>
+        <v>31.9</v>
       </c>
       <c r="H8" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="I8" t="n">
         <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="O8" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="P8" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="R8" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1592,17 +1588,15 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>26</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1660,7 +1654,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.1</v>
+        <v>2.3</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -1668,72 +1662,68 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Jalen Duren</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>29.6</v>
       </c>
       <c r="G9" t="n">
-        <v>31.9</v>
+        <v>31.1</v>
       </c>
       <c r="H9" t="n">
-        <v>31.1</v>
+        <v>31.4</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
         <v>3</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
       <c r="N9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O9" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1742,7 +1732,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1766,32 +1756,32 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1801,16 +1791,16 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>-2.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -1818,82 +1808,82 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Jaylen Brown</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>15.6</v>
+        <v>38.6</v>
       </c>
       <c r="G10" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="H10" t="n">
-        <v>34.4</v>
+        <v>31</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>24</v>
+      </c>
+      <c r="O10" t="n">
+        <v>40</v>
+      </c>
+      <c r="P10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>49</v>
+      </c>
+      <c r="R10" t="n">
+        <v>40</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
         <v>2</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-12</v>
-      </c>
-      <c r="O10" t="n">
-        <v>28</v>
-      </c>
-      <c r="P10" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>13</v>
-      </c>
-      <c r="R10" t="n">
-        <v>13</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>35</v>
-      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>-</t>
@@ -1916,12 +1906,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1931,7 +1921,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -1941,33 +1931,29 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>12</v>
-      </c>
+        <v>-2.5</v>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1991,16 +1977,16 @@
         <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="H11" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2012,21 +1998,19 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
+        <v>16</v>
+      </c>
+      <c r="O11" t="n">
         <v>36</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>31</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>39</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>33</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -2110,7 +2094,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -2118,12 +2102,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2134,43 +2118,43 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>35.6</v>
       </c>
       <c r="G12" t="n">
-        <v>30.1</v>
+        <v>29.2</v>
       </c>
       <c r="H12" t="n">
-        <v>31.4</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>4</v>
       </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="O12" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P12" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="Q12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -2179,24 +2163,26 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X12" t="n">
-        <v>26</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
@@ -2215,7 +2201,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2225,27 +2211,27 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2254,7 +2240,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -2262,12 +2248,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2276,47 +2262,49 @@
           <t>G</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F13" t="n">
-        <v>33.8</v>
+        <v>22.2</v>
       </c>
       <c r="G13" t="n">
-        <v>29.4</v>
+        <v>28.5</v>
       </c>
       <c r="H13" t="n">
-        <v>30.8</v>
+        <v>34.6</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
+        <v>46</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="n">
         <v>36</v>
       </c>
-      <c r="O13" t="n">
-        <v>8</v>
-      </c>
-      <c r="P13" t="n">
-        <v>53</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>40</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R13" t="n">
+        <v>13</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -2325,7 +2313,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2334,7 +2322,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -2363,17 +2351,17 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2383,7 +2371,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2393,7 +2381,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2402,73 +2390,71 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="H14" t="n">
-        <v>26.2</v>
+        <v>24.2</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
         <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="O14" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>55</v>
+      </c>
+      <c r="P14" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>17</v>
+      </c>
+      <c r="R14" t="n">
+        <v>11</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2477,59 +2463,57 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>20</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
           <t>TOR</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
       <c r="AE14" t="inlineStr">
         <is>
           <t>@</t>
@@ -2537,7 +2521,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2547,7 +2531,7 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2556,7 +2540,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.7</v>
+        <v>1.5</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -2564,59 +2548,63 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>37.4</v>
+        <v>22.4</v>
       </c>
       <c r="G15" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="H15" t="n">
         <v>26.1</v>
       </c>
-      <c r="H15" t="n">
-        <v>24.2</v>
-      </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="O15" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P15" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>11</v>
-      </c>
-      <c r="R15" t="n">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2625,55 +2613,57 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
-        <v>20</v>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -2683,7 +2673,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -2693,7 +2683,7 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2702,7 +2692,7 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>1.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -2710,167 +2700,177 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F16" t="n">
-        <v>15.6</v>
+        <v>22.4</v>
       </c>
       <c r="G16" t="n">
-        <v>23</v>
+        <v>24.2</v>
       </c>
       <c r="H16" t="n">
-        <v>35.3</v>
+        <v>17.5</v>
       </c>
       <c r="I16" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>32</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AL16" t="n">
         <v>11</v>
       </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>16</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-8</v>
-      </c>
-      <c r="P16" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>8</v>
-      </c>
-      <c r="R16" t="n">
-        <v>31</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>BKN</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ16" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Tyrese Haliburton</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>G</t>
@@ -2878,45 +2878,43 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>39.2</v>
+        <v>15.8</v>
       </c>
       <c r="G17" t="n">
-        <v>40.5</v>
+        <v>23.9</v>
       </c>
       <c r="H17" t="n">
-        <v>41.4</v>
+        <v>35.2</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>32</v>
       </c>
       <c r="O17" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P17" t="n">
-        <v>49</v>
+        <v>-8</v>
       </c>
       <c r="Q17" t="n">
         <v>31</v>
       </c>
       <c r="R17" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2925,16 +2923,18 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V17" t="n">
-        <v>8</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -2958,12 +2958,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2973,27 +2973,27 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>-2.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -3010,12 +3010,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3025,37 +3025,33 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>25.4</v>
+        <v>39.2</v>
       </c>
       <c r="G18" t="n">
-        <v>25.1</v>
+        <v>40.5</v>
       </c>
       <c r="H18" t="n">
-        <v>17.8</v>
+        <v>41.4</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -3067,18 +3063,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P18" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>49</v>
       </c>
       <c r="R18" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -3087,7 +3079,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3096,7 +3088,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -3125,7 +3117,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3135,7 +3127,7 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -3145,7 +3137,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3155,7 +3147,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3164,14 +3156,10 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>11</v>
-      </c>
+        <v>-2.2</v>
+      </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3205,10 +3193,10 @@
         <v>26.8</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -3239,8 +3227,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R19" t="n">
-        <v>23</v>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
